--- a/Excel reglages/Réglage Fréquence et Timer.xlsx
+++ b/Excel reglages/Réglage Fréquence et Timer.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\Projet-Balise\Excel reglages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="PWM" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -117,12 +122,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,15 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -356,6 +352,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -366,6 +371,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,6 +489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,14 +665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -671,39 +681,39 @@
     <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B4" s="17" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="20" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>32</v>
       </c>
@@ -713,37 +723,37 @@
       <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <f>C10*B6/(C6*D6)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="25">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>0</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <f>A2*B9*0.375/100</f>
         <v>0</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26">
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23">
         <f>C9+A2</f>
         <v>10</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
@@ -751,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>27</v>
       </c>
@@ -766,7 +776,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -787,7 +797,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>F6/2*1000000</f>
         <v>40000000</v>
@@ -811,7 +821,7 @@
         <v>1562.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>6</v>
       </c>
@@ -823,7 +833,7 @@
         <v>14062500</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>16</v>
       </c>
@@ -835,7 +845,7 @@
         <v>31250.000000000004</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -843,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G18" s="2">
         <f>ROUND(H11,0)*$D$13</f>
         <v>9.9839999999999998E-4</v>
@@ -853,7 +863,7 @@
         <v>1.0047999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G19" s="2">
         <f>ROUND(H12,0)*$D$13</f>
         <v>4.9984000000000001E-3</v>
@@ -863,7 +873,7 @@
         <v>5.0047999999999994E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G20" s="2">
         <f t="shared" ref="G20:G21" si="1">ROUND(H13,0)*$D$13</f>
         <v>1.00032E-2</v>
@@ -873,7 +883,7 @@
         <v>1.00032E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -883,7 +893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G22" s="2">
         <f t="shared" ref="G22" si="3">ROUND(H15,0)*$D$13</f>
         <v>0.19999999999999998</v>
@@ -893,15 +903,15 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1"/>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C26" s="17" t="s">
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="3:8">
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
         <v>10</v>
       </c>
@@ -912,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15.75" thickBot="1">
+    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="11">
         <f>C10/C6</f>
         <v>5</v>
@@ -937,22 +947,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -963,21 +974,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'Freq et timer'!F6</f>
-        <v>80</v>
+        <v>7.37</v>
       </c>
       <c r="B2">
         <f>A2/2</f>
-        <v>40</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="C2" s="4">
         <f>B2*1000000</f>
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>3685000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>23</v>
       </c>
@@ -986,7 +996,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1010,84 +1020,103 @@
       <c r="E5" s="4">
         <v>44000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="C6" s="5">
         <f>$C$2/(C$5*$A6) - 1</f>
-        <v>1999</v>
+        <v>183.25</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:E9" si="0">$C$2/(D$5*$A6) - 1</f>
-        <v>999</v>
+        <f t="shared" ref="D6:F9" si="0">$C$2/(D$5*$A6) - 1</f>
+        <v>91.125</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>908.09090909090912</v>
+        <v>82.75</v>
+      </c>
+      <c r="F6" s="5">
+        <f>$C$2/(F$5*$A6) - 1</f>
+        <v>73699</v>
       </c>
       <c r="H6" s="6">
         <f>1/E5</f>
         <v>2.2727272727272726E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ref="C7:C9" si="1">$C$2/(C$5*$A7) - 1</f>
-        <v>499</v>
+        <v>45.0625</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>22.03125</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>226.27272727272728</v>
+        <v>19.9375</v>
+      </c>
+      <c r="F7" s="5">
+        <f>$C$2/(F$5*$A7) - 1</f>
+        <v>18424</v>
       </c>
       <c r="H7" s="1">
         <f>1/C5</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>10.515625</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>61.5</v>
+        <v>4.7578125</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>55.81818181818182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>4.234375</v>
+      </c>
+      <c r="F8" s="5">
+        <f>$C$2/(F$5*$A8) - 1</f>
+        <v>4605.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>30.25</v>
+        <v>1.87890625</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>14.625</v>
+        <v>0.439453125</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>13.204545454545455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.30859375</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1150.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1098,12 +1127,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
